--- a/Chapter_04/Chapter_4_Table_S4.18.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC49B8-E207-41AD-819E-C00AFB827B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B8FDB7-77CE-443E-AB3C-4808E7B8E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FCC42BF9-4B4C-4558-AFD5-39F2564B4E7E}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{06AC7BD7-A4FD-4F01-8421-9A7499379953}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.18" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <r>
-      <t xml:space="preserve">Supplementary Table 18: </t>
+      <t xml:space="preserve">Supplementary Table S4.18: </t>
     </r>
     <r>
       <rPr>
@@ -62,12 +62,18 @@
     </r>
   </si>
   <si>
+    <t>Infectious agent</t>
+  </si>
+  <si>
     <t>Disease</t>
   </si>
   <si>
     <t>Set</t>
   </si>
   <si>
+    <t>variable</t>
+  </si>
+  <si>
     <t>group1</t>
   </si>
   <si>
@@ -80,16 +86,25 @@
     <t>n2</t>
   </si>
   <si>
+    <t>statistic</t>
+  </si>
+  <si>
     <t>p</t>
   </si>
   <si>
     <t>p.adj</t>
   </si>
   <si>
-    <t>brsv</t>
-  </si>
-  <si>
-    <t>Pass 1</t>
+    <t>BRSV</t>
+  </si>
+  <si>
+    <t>BRD</t>
+  </si>
+  <si>
+    <t>13-gene set</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
   <si>
     <t>Control</t>
@@ -98,16 +113,19 @@
     <t>Infected</t>
   </si>
   <si>
-    <t>Pass 2</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>bohv1</t>
+    <t>17-gene set</t>
+  </si>
+  <si>
+    <t>30-gene set</t>
+  </si>
+  <si>
+    <t>BoHV-1</t>
   </si>
   <si>
     <t>MAP</t>
+  </si>
+  <si>
+    <t>Johne's disease</t>
   </si>
 </sst>
 </file>
@@ -152,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,15 +178,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,17 +221,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64CDD46B-7205-43B6-BAC1-4A55C621C6C2}" name="Table18" displayName="Table18" ref="A2:H11" totalsRowShown="0">
-  <autoFilter ref="A2:H11" xr:uid="{64CDD46B-7205-43B6-BAC1-4A55C621C6C2}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4AE656A4-1EAF-4C3E-A13D-98E034615D75}" name="Disease"/>
-    <tableColumn id="2" xr3:uid="{F5732421-DDF6-45E3-B2F1-997B0D476ABD}" name="Set"/>
-    <tableColumn id="3" xr3:uid="{01EF5921-CDAE-4C1F-8B68-9397BCB51335}" name="group1"/>
-    <tableColumn id="4" xr3:uid="{8451C556-3BC8-45D5-A104-FF115F86B8B1}" name="group2"/>
-    <tableColumn id="5" xr3:uid="{CAC18996-048A-4B3B-BB29-B1EE7DB7A8D3}" name="n1"/>
-    <tableColumn id="6" xr3:uid="{DBB3B387-55B8-40AC-904F-857B2F8541ED}" name="n2"/>
-    <tableColumn id="7" xr3:uid="{E21BF466-863E-42AA-BF25-41F00CE6D5CC}" name="p"/>
-    <tableColumn id="8" xr3:uid="{3BC818C5-0562-40BC-913E-B1ACF329DAE7}" name="p.adj"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C39A32B-A55D-4B7B-BCB0-625143C76439}" name="Table18" displayName="Table18" ref="A2:K11" totalsRowShown="0">
+  <autoFilter ref="A2:K11" xr:uid="{D06C2031-D03E-44CC-B345-C693525697C7}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CDC4A63A-5809-4710-9670-10A137AF522E}" name="Infectious agent"/>
+    <tableColumn id="2" xr3:uid="{AFA84BD3-3AF6-4D8B-8B2B-EFD7F660EC93}" name="Disease"/>
+    <tableColumn id="3" xr3:uid="{C52ED611-7D26-4D15-81E3-7D419AC192F1}" name="Set"/>
+    <tableColumn id="4" xr3:uid="{829FF289-A031-4CEB-AC8C-2478345F2610}" name="variable"/>
+    <tableColumn id="5" xr3:uid="{2A0F4CEA-666B-4795-A5B7-B969707F1848}" name="group1"/>
+    <tableColumn id="6" xr3:uid="{B626848C-8188-4F1B-ADCC-14C472194749}" name="group2"/>
+    <tableColumn id="7" xr3:uid="{A7837FBE-DAB2-4B76-9787-91D4E4F9DD26}" name="n1"/>
+    <tableColumn id="8" xr3:uid="{46E90E9A-0D11-4B7C-9261-2B23878DFE3B}" name="n2"/>
+    <tableColumn id="9" xr3:uid="{5877EB0D-9AB5-4C0C-8853-E8EDC9865741}" name="statistic"/>
+    <tableColumn id="10" xr3:uid="{6EF4EE27-C2FF-47B9-B906-EF08FA7F6286}" name="p"/>
+    <tableColumn id="11" xr3:uid="{F5964E1C-B3F9-4177-8CAF-824E412FD5AE}" name="p.adj"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,17 +556,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7910CC-7C7B-4EC9-9263-83B7D89B1664}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6855F536-3C7D-45CC-80EB-34F8C4EA7813}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +592,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,239 +617,332 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.12024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
-      </c>
-      <c r="G3">
-        <v>0.82</v>
-      </c>
-      <c r="H3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="K4">
+        <v>1.9395E-3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.9395E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>2.1499999999999999E-4</v>
-      </c>
-      <c r="H4">
-        <v>9.6699999999999998E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.57750000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2.1499999999999999E-4</v>
-      </c>
-      <c r="H6">
-        <v>9.6699999999999998E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.08E-4</v>
+      </c>
+      <c r="K6">
+        <v>9.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="K7">
+        <v>6.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>1.35E-2</v>
+      </c>
+      <c r="K8">
+        <v>3.0374999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>4.3100000000000001E-4</v>
-      </c>
-      <c r="H7">
-        <v>1.2899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I9">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J10">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.86512500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>1.35E-2</v>
-      </c>
-      <c r="H8">
-        <v>3.04E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I11">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="H9">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
+      <c r="J11">
         <v>0.45600000000000002</v>
       </c>
-      <c r="H11">
-        <v>0.63500000000000001</v>
+      <c r="K11">
+        <v>0.58628571428571397</v>
       </c>
     </row>
   </sheetData>
